--- a/Data Files/GreenVolt.xlsx
+++ b/Data Files/GreenVolt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\X-NSPS\Python - Scripting\pythonProject\GreenVolt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GreenVolt\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE17E4C-43B0-4867-841A-5B5285E4FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8328035-0D80-45A3-BE71-3A630080B6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB1DBE1C-D2C0-4932-B5F6-B15F6BC097D7}"/>
   </bookViews>
@@ -2892,6 +2892,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2901,7 +2902,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3280,7 +3280,7 @@
   <dimension ref="A1:AD612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,7 +3292,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -3318,54 +3318,54 @@
       <c r="A1" t="s">
         <v>760</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>749</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="8"/>
+      <c r="P2" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="8"/>
+      <c r="S2" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
       <c r="V2" s="4"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="Y2" s="8"/>
+      <c r="AA2" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>752</v>
       </c>
       <c r="B3" s="4"/>
@@ -3378,33 +3378,33 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="N3" s="8"/>
+      <c r="P3" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="7" t="s">
+      <c r="Q3" s="8"/>
+      <c r="S3" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="X3" s="7" t="s">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="X3" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="Y3" s="7"/>
-      <c r="AA3" s="7" t="s">
+      <c r="Y3" s="8"/>
+      <c r="AA3" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3415,20 +3415,20 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="P4" s="7" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="P4" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="X4" s="7" t="s">
+      <c r="Q4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="X4" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="8"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -3444,11 +3444,11 @@
       <c r="D5" t="s">
         <v>763</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>690</v>
+      <c r="F5" s="7" t="s">
+        <v>767</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>764</v>
@@ -3456,13 +3456,13 @@
       <c r="H5" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>687</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -3484,7 +3484,7 @@
         <v>690</v>
       </c>
       <c r="U5" t="s">
-        <v>686</v>
+        <v>7</v>
       </c>
       <c r="V5" t="s">
         <v>751</v>
@@ -21887,11 +21887,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="X4:Y4"/>
@@ -21904,6 +21899,11 @@
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
